--- a/hashtag.xlsx
+++ b/hashtag.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Documents\GitHub\IG-BOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4AB0007-5F15-4F90-A71C-22B936B3FC17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EABBB120-BDE1-4BB6-BE25-FB308725A8CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{812097A6-9039-4BC7-BD4A-AAC334122073}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13474" xr2:uid="{812097A6-9039-4BC7-BD4A-AAC334122073}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -427,7 +427,7 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
